--- a/data/Survey_Data.xlsx
+++ b/data/Survey_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adoan/Documents/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E6AECB-F30F-794B-A99F-4318F02C27A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00DFD32-2B0D-BC44-8D21-B2F10F8BEB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -566,7 +566,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -591,7 +591,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
